--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.59758307873887</v>
+        <v>75.34121063332861</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.70282184367392</v>
+        <v>103.0851682081095</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.57328937299953</v>
+        <v>93.24686443529568</v>
       </c>
       <c r="AD2" t="n">
-        <v>54597.58307873887</v>
+        <v>75341.21063332862</v>
       </c>
       <c r="AE2" t="n">
-        <v>74702.82184367391</v>
+        <v>103085.1682081094</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.971548363136157e-06</v>
+        <v>1.178574840962712e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.905815972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>67573.28937299953</v>
+        <v>93246.86443529568</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.61190487068119</v>
+        <v>74.70256222309222</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.40485872009924</v>
+        <v>102.2113412780451</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.96762308087273</v>
+        <v>92.45643432101258</v>
       </c>
       <c r="AD2" t="n">
-        <v>64611.90487068119</v>
+        <v>74702.56222309222</v>
       </c>
       <c r="AE2" t="n">
-        <v>88404.85872009925</v>
+        <v>102211.3412780451</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.855857194739255e-06</v>
+        <v>1.187291183843772e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.057725694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>79967.62308087273</v>
+        <v>92456.43432101258</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.73987150072912</v>
+        <v>98.88535138013904</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.4718541789912</v>
+        <v>135.2993002720617</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.92857546439772</v>
+        <v>122.3865249478929</v>
       </c>
       <c r="AD2" t="n">
-        <v>80739.87150072912</v>
+        <v>98885.35138013904</v>
       </c>
       <c r="AE2" t="n">
-        <v>110471.8541789912</v>
+        <v>135299.3002720617</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.61005081968565e-06</v>
+        <v>1.061542337610777e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.168836805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>99928.57546439773</v>
+        <v>122386.5249478929</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.28458078117508</v>
+        <v>85.27784233911976</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.69348769408896</v>
+        <v>116.6809060812181</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.03782851769652</v>
+        <v>105.5450441675371</v>
       </c>
       <c r="AD2" t="n">
-        <v>66284.58078117509</v>
+        <v>85277.84233911976</v>
       </c>
       <c r="AE2" t="n">
-        <v>90693.48769408895</v>
+        <v>116680.9060812181</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.319447451557203e-06</v>
+        <v>1.151266083212674e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.541666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>82037.82851769653</v>
+        <v>105545.0441675371</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.82479738728087</v>
+        <v>115.1474064339109</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.5340064587226</v>
+        <v>157.5497614278563</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.9349714563832</v>
+        <v>142.5134333197039</v>
       </c>
       <c r="AD2" t="n">
-        <v>88824.79738728087</v>
+        <v>115147.4064339109</v>
       </c>
       <c r="AE2" t="n">
-        <v>121534.0064587226</v>
+        <v>157549.7614278563</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.859510447376538e-06</v>
+        <v>9.523074740319224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.997829861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>109934.9714563832</v>
+        <v>142513.4333197039</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.68983367192739</v>
+        <v>74.86562967049437</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.51148434394034</v>
+        <v>102.4344573536087</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.06407250482444</v>
+        <v>92.6582565114698</v>
       </c>
       <c r="AD2" t="n">
-        <v>64689.83367192739</v>
+        <v>74865.62967049437</v>
       </c>
       <c r="AE2" t="n">
-        <v>88511.48434394033</v>
+        <v>102434.4573536087</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.897360056988516e-06</v>
+        <v>1.186677835795667e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.012152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>80064.07250482443</v>
+        <v>92658.25651146981</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.6778800490829</v>
+        <v>131.5303064978464</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.5931376621216</v>
+        <v>179.9655680578625</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.7933715414311</v>
+        <v>162.7899068257316</v>
       </c>
       <c r="AD2" t="n">
-        <v>105677.8800490829</v>
+        <v>131530.3064978464</v>
       </c>
       <c r="AE2" t="n">
-        <v>144593.1376621216</v>
+        <v>179965.5680578625</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.336916095506659e-06</v>
+        <v>8.694043853327569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.731336805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>130793.3715414311</v>
+        <v>162789.9068257316</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.70681461946904</v>
+        <v>74.52115587233492</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.53471842551335</v>
+        <v>101.9631331058557</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.0850891582614</v>
+        <v>92.23191478841451</v>
       </c>
       <c r="AD2" t="n">
-        <v>64706.81461946905</v>
+        <v>74521.15587233492</v>
       </c>
       <c r="AE2" t="n">
-        <v>88534.71842551335</v>
+        <v>101963.1331058557</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.686501714467383e-06</v>
+        <v>1.184229138953512e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>80085.0891582614</v>
+        <v>92231.91478841452</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.54009655459376</v>
+        <v>74.54237775697032</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.30660741406918</v>
+        <v>101.9921698246573</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.87874874159355</v>
+        <v>92.25818028352701</v>
       </c>
       <c r="AD2" t="n">
-        <v>64540.09655459377</v>
+        <v>74542.37775697032</v>
       </c>
       <c r="AE2" t="n">
-        <v>88306.60741406918</v>
+        <v>101992.1698246573</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.820353544361304e-06</v>
+        <v>1.189410103352118e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.103298611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>79878.74874159356</v>
+        <v>92258.18028352701</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.40133003713649</v>
+        <v>74.99083983026331</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.43429977408054</v>
+        <v>102.6057754180868</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.33039467285498</v>
+        <v>92.81322422032063</v>
       </c>
       <c r="AD2" t="n">
-        <v>54401.33003713649</v>
+        <v>74990.83983026331</v>
       </c>
       <c r="AE2" t="n">
-        <v>74434.29977408054</v>
+        <v>102605.7754180868</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.9675177936351e-06</v>
+        <v>1.184431846733134e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.931857638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>67330.39467285498</v>
+        <v>92813.22422032064</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.63334627111837</v>
+        <v>84.67904679283389</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.80243990699094</v>
+        <v>115.8616075977951</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.23182108080542</v>
+        <v>104.8039383814791</v>
       </c>
       <c r="AD2" t="n">
-        <v>65633.34627111837</v>
+        <v>84679.04679283389</v>
       </c>
       <c r="AE2" t="n">
-        <v>89802.43990699094</v>
+        <v>115861.6075977951</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.45783434813162e-06</v>
+        <v>1.164500351122992e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.422309027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>81231.82108080541</v>
+        <v>104803.9383814791</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.29212489089105</v>
+        <v>87.7955658898433</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.80854222848208</v>
+        <v>120.1257665174401</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.76014802284379</v>
+        <v>108.6611319586192</v>
       </c>
       <c r="AD2" t="n">
-        <v>69292.12489089105</v>
+        <v>87795.5658898433</v>
       </c>
       <c r="AE2" t="n">
-        <v>94808.54222848208</v>
+        <v>120125.7665174401</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.881218479823029e-06</v>
+        <v>1.097247379457275e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.912760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>85760.14802284379</v>
+        <v>108661.1319586192</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.88596851098447</v>
+        <v>101.9049546585412</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.7764829044248</v>
+        <v>139.4308546930643</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.8223764658617</v>
+        <v>126.1237696136294</v>
       </c>
       <c r="AD2" t="n">
-        <v>83885.96851098447</v>
+        <v>101904.9546585412</v>
       </c>
       <c r="AE2" t="n">
-        <v>114776.4829044248</v>
+        <v>139430.8546930643</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.27659014432729e-06</v>
+        <v>1.014707852254058e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.51171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>103822.3764658617</v>
+        <v>126123.7696136294</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.3208057386086</v>
+        <v>163.5270954974671</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.2566286947522</v>
+        <v>223.7449863658267</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.194241675525</v>
+        <v>202.3910788951972</v>
       </c>
       <c r="AD2" t="n">
-        <v>138320.8057386086</v>
+        <v>163527.0954974671</v>
       </c>
       <c r="AE2" t="n">
-        <v>189256.6286947521</v>
+        <v>223744.9863658267</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.625417979539818e-06</v>
+        <v>7.477784664255112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.048611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>171194.241675525</v>
+        <v>202391.0788951972</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.82332013601862</v>
+        <v>74.73363561475693</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.69412641311705</v>
+        <v>102.253857263382</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.22928347125875</v>
+        <v>92.49489264038053</v>
       </c>
       <c r="AD2" t="n">
-        <v>64823.32013601863</v>
+        <v>74733.63561475693</v>
       </c>
       <c r="AE2" t="n">
-        <v>88694.12641311705</v>
+        <v>102253.857263382</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.73284721520825e-06</v>
+        <v>1.182934696127394e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.174913194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>80229.28347125875</v>
+        <v>92494.89264038052</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.48734135517925</v>
+        <v>74.91781404543849</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.55198425397813</v>
+        <v>102.5058583176193</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.4368475111624</v>
+        <v>92.72284306768717</v>
       </c>
       <c r="AD2" t="n">
-        <v>54487.34135517925</v>
+        <v>74917.81404543848</v>
       </c>
       <c r="AE2" t="n">
-        <v>74551.98425397814</v>
+        <v>102505.8583176193</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.922416119854363e-06</v>
+        <v>1.183656011431576e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.975260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>67436.8475111624</v>
+        <v>92722.84306768716</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.6186964838318</v>
+        <v>228.3083388175675</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.7081776817778</v>
+        <v>312.381541423095</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.2083094960941</v>
+        <v>282.5682855400145</v>
       </c>
       <c r="AD2" t="n">
-        <v>187618.6964838318</v>
+        <v>228308.3388175675</v>
       </c>
       <c r="AE2" t="n">
-        <v>256708.1776817779</v>
+        <v>312381.541423095</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.697197593042005e-06</v>
+        <v>5.781336745372936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.811197916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>232208.3094960941</v>
+        <v>282568.2855400144</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.61771589929943</v>
+        <v>86.37420384945796</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.51754197647629</v>
+        <v>118.1809962677182</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.68779761944967</v>
+        <v>106.901967852028</v>
       </c>
       <c r="AD2" t="n">
-        <v>67617.71589929942</v>
+        <v>86374.20384945796</v>
       </c>
       <c r="AE2" t="n">
-        <v>92517.54197647629</v>
+        <v>118180.9962677182</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.114464999281527e-06</v>
+        <v>1.126548924943111e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.708767361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>83687.79761944967</v>
+        <v>106901.967852028</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.02674444690996</v>
+        <v>84.28368072812225</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.97246052972564</v>
+        <v>115.3206503057371</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.48105377042269</v>
+        <v>104.3146092941366</v>
       </c>
       <c r="AD2" t="n">
-        <v>65026.74444690996</v>
+        <v>84283.68072812224</v>
       </c>
       <c r="AE2" t="n">
-        <v>88972.46052972563</v>
+        <v>115320.6503057371</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.591276672874991e-06</v>
+        <v>1.17748347560528e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.313802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>80481.05377042269</v>
+        <v>104314.6092941366</v>
       </c>
     </row>
   </sheetData>
